--- a/ac_fantasy_football/defense_data_by_week.xlsx
+++ b/ac_fantasy_football/defense_data_by_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python/fantasy_football/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC803649-4934-4F97-949F-0FF925C47F17}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B4856FA-9159-470F-9D41-9260FF07B147}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="WK5" sheetId="5" r:id="rId5"/>
     <sheet name="WK6" sheetId="6" r:id="rId6"/>
     <sheet name="WK7" sheetId="7" r:id="rId7"/>
+    <sheet name="WK8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3444" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="676">
   <si>
     <t>Team Defense/Special Teams</t>
   </si>
@@ -1975,6 +1976,90 @@
   </si>
   <si>
     <t>18.0</t>
+  </si>
+  <si>
+    <t>NFL Week 8</t>
+  </si>
+  <si>
+    <t>W 26-18</t>
+  </si>
+  <si>
+    <t>W 52-14</t>
+  </si>
+  <si>
+    <t>W 28-14</t>
+  </si>
+  <si>
+    <t>WA (Sat)</t>
+  </si>
+  <si>
+    <t>W 30-24</t>
+  </si>
+  <si>
+    <t>W 26-8</t>
+  </si>
+  <si>
+    <t>W 37-17</t>
+  </si>
+  <si>
+    <t>W 30-20</t>
+  </si>
+  <si>
+    <t>W 18-15</t>
+  </si>
+  <si>
+    <t>L 22-25</t>
+  </si>
+  <si>
+    <t>L 8-26</t>
+  </si>
+  <si>
+    <t>W 30-27</t>
+  </si>
+  <si>
+    <t>W 31-26</t>
+  </si>
+  <si>
+    <t>L 18-26</t>
+  </si>
+  <si>
+    <t>W 29-24</t>
+  </si>
+  <si>
+    <t>L 26-31</t>
+  </si>
+  <si>
+    <t>W 28-27</t>
+  </si>
+  <si>
+    <t>L 14-28</t>
+  </si>
+  <si>
+    <t>L 14-52</t>
+  </si>
+  <si>
+    <t>W 25-22</t>
+  </si>
+  <si>
+    <t>L 20-30</t>
+  </si>
+  <si>
+    <t>L 24-29</t>
+  </si>
+  <si>
+    <t>L 27-28</t>
+  </si>
+  <si>
+    <t>L 27-30</t>
+  </si>
+  <si>
+    <t>L 15-18</t>
+  </si>
+  <si>
+    <t>L 17-37</t>
+  </si>
+  <si>
+    <t>L 24-30</t>
   </si>
 </sst>
 </file>
@@ -13153,7 +13238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB732293-90CD-4437-AE9D-A74BCDFBB5C3}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -14957,4 +15042,1947 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4B41F-D0B6-45B4-B16E-F8370740589E}">
+  <dimension ref="A1:H166"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F3">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>650</v>
+      </c>
+      <c r="F6">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>651</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>409</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F15">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" t="s">
+        <v>304</v>
+      </c>
+      <c r="E18" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" t="s">
+        <v>653</v>
+      </c>
+      <c r="F21">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" t="s">
+        <v>654</v>
+      </c>
+      <c r="F24">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>655</v>
+      </c>
+      <c r="F27">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>656</v>
+      </c>
+      <c r="F30">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>288</v>
+      </c>
+      <c r="E33" t="s">
+        <v>657</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" t="s">
+        <v>658</v>
+      </c>
+      <c r="F36">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E39" t="s">
+        <v>659</v>
+      </c>
+      <c r="F39">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" t="s">
+        <v>308</v>
+      </c>
+      <c r="E42" t="s">
+        <v>660</v>
+      </c>
+      <c r="F42">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" t="s">
+        <v>661</v>
+      </c>
+      <c r="F45">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>417</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>411</v>
+      </c>
+      <c r="E54" t="s">
+        <v>662</v>
+      </c>
+      <c r="F54">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" t="s">
+        <v>663</v>
+      </c>
+      <c r="F57">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" t="s">
+        <v>664</v>
+      </c>
+      <c r="F60">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" t="s">
+        <v>665</v>
+      </c>
+      <c r="F63">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" t="s">
+        <v>290</v>
+      </c>
+      <c r="E66" t="s">
+        <v>666</v>
+      </c>
+      <c r="F66">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>92</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" t="s">
+        <v>667</v>
+      </c>
+      <c r="F69">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" t="s">
+        <v>599</v>
+      </c>
+      <c r="D72" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" t="s">
+        <v>668</v>
+      </c>
+      <c r="F72">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" t="s">
+        <v>404</v>
+      </c>
+      <c r="E75" t="s">
+        <v>669</v>
+      </c>
+      <c r="F75">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" t="s">
+        <v>670</v>
+      </c>
+      <c r="F78">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" t="s">
+        <v>671</v>
+      </c>
+      <c r="F81">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" t="s">
+        <v>332</v>
+      </c>
+      <c r="E84" t="s">
+        <v>333</v>
+      </c>
+      <c r="F84">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>672</v>
+      </c>
+      <c r="F87">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" t="s">
+        <v>339</v>
+      </c>
+      <c r="E90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F90">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" t="s">
+        <v>674</v>
+      </c>
+      <c r="F93">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
+      </c>
+      <c r="E96" t="s">
+        <v>675</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="D100" t="s">
+        <v>205</v>
+      </c>
+      <c r="E100" t="s">
+        <v>206</v>
+      </c>
+      <c r="F100" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" t="s">
+        <v>208</v>
+      </c>
+      <c r="H100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>18</v>
+      </c>
+      <c r="H101">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>14</v>
+      </c>
+      <c r="H102">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>14</v>
+      </c>
+      <c r="H104">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>20</v>
+      </c>
+      <c r="H105">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>20</v>
+      </c>
+      <c r="H106">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>24</v>
+      </c>
+      <c r="H107">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>6</v>
+      </c>
+      <c r="H108">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>17</v>
+      </c>
+      <c r="H109">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>20</v>
+      </c>
+      <c r="H110">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>25</v>
+      </c>
+      <c r="H112">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>26</v>
+      </c>
+      <c r="H113">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>27</v>
+      </c>
+      <c r="H114">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>24</v>
+      </c>
+      <c r="H115">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>23</v>
+      </c>
+      <c r="H116">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>27</v>
+      </c>
+      <c r="H117">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>26</v>
+      </c>
+      <c r="H118">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>24</v>
+      </c>
+      <c r="H119">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>31</v>
+      </c>
+      <c r="H120">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>27</v>
+      </c>
+      <c r="H121">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>28</v>
+      </c>
+      <c r="H122">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>4</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>52</v>
+      </c>
+      <c r="H123">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>22</v>
+      </c>
+      <c r="H124">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>28</v>
+      </c>
+      <c r="H125">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>29</v>
+      </c>
+      <c r="H126">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>26</v>
+      </c>
+      <c r="H127">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>31</v>
+      </c>
+      <c r="H128">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>30</v>
+      </c>
+      <c r="H129">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>18</v>
+      </c>
+      <c r="H130">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>37</v>
+      </c>
+      <c r="H131">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>30</v>
+      </c>
+      <c r="H132">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ac_fantasy_football/defense_data_by_week.xlsx
+++ b/ac_fantasy_football/defense_data_by_week.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B4856FA-9159-470F-9D41-9260FF07B147}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E73442-8B13-447E-8908-00398AD68E8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15046,15 +15046,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4B41F-D0B6-45B4-B16E-F8370740589E}">
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P1" sqref="P1:P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15064,8 +15064,14 @@
       <c r="D1" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -15084,8 +15090,35 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -15101,18 +15134,99 @@
       <c r="F3">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18</v>
+      </c>
+      <c r="O3">
+        <v>394</v>
+      </c>
+      <c r="P3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+      <c r="O4">
+        <v>416</v>
+      </c>
+      <c r="P4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>233</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -15128,18 +15242,99 @@
       <c r="F6">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <v>284</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+      <c r="O7">
+        <v>228</v>
+      </c>
+      <c r="P7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
+        <v>303</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -15155,18 +15350,99 @@
       <c r="F9">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>24</v>
+      </c>
+      <c r="O9">
+        <v>292</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>366</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <v>280</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -15182,18 +15458,99 @@
       <c r="F12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>276</v>
+      </c>
+      <c r="P12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
+      </c>
+      <c r="O13">
+        <v>307</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>25</v>
+      </c>
+      <c r="O14">
+        <v>248</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>184</v>
       </c>
@@ -15209,18 +15566,99 @@
       <c r="F15">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>378</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>27</v>
+      </c>
+      <c r="O16">
+        <v>390</v>
+      </c>
+      <c r="P16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>24</v>
+      </c>
+      <c r="O17">
+        <v>432</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -15236,18 +15674,99 @@
       <c r="F18">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>23</v>
+      </c>
+      <c r="O18">
+        <v>363</v>
+      </c>
+      <c r="P18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>27</v>
+      </c>
+      <c r="O19">
+        <v>334</v>
+      </c>
+      <c r="P19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>26</v>
+      </c>
+      <c r="O20">
+        <v>426</v>
+      </c>
+      <c r="P20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -15263,18 +15782,99 @@
       <c r="F21">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>24</v>
+      </c>
+      <c r="O21">
+        <v>387</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>31</v>
+      </c>
+      <c r="O22">
+        <v>394</v>
+      </c>
+      <c r="P22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>27</v>
+      </c>
+      <c r="O23">
+        <v>377</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -15290,18 +15890,99 @@
       <c r="F24">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>28</v>
+      </c>
+      <c r="O24">
+        <v>400</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>52</v>
+      </c>
+      <c r="O25">
+        <v>225</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>22</v>
+      </c>
+      <c r="O26">
+        <v>336</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>167</v>
       </c>
@@ -15317,18 +15998,99 @@
       <c r="F27">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>28</v>
+      </c>
+      <c r="O27">
+        <v>386</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>29</v>
+      </c>
+      <c r="O28">
+        <v>401</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>26</v>
+      </c>
+      <c r="O29">
+        <v>389</v>
+      </c>
+      <c r="P29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>151</v>
       </c>
@@ -15344,18 +16106,99 @@
       <c r="F30">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>31</v>
+      </c>
+      <c r="O30">
+        <v>445</v>
+      </c>
+      <c r="P30">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>422</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>18</v>
+      </c>
+      <c r="O32">
+        <v>481</v>
+      </c>
+      <c r="P32">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>190</v>
       </c>
@@ -15371,18 +16214,72 @@
       <c r="F33">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>37</v>
+      </c>
+      <c r="O33">
+        <v>397</v>
+      </c>
+      <c r="P33">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>469</v>
+      </c>
+      <c r="P34">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -15399,17 +16296,17 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -15426,17 +16323,17 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -15453,17 +16350,17 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -15480,17 +16377,17 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -15939,1047 +16836,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" t="s">
-        <v>203</v>
-      </c>
-      <c r="C100" t="s">
-        <v>204</v>
-      </c>
-      <c r="D100" t="s">
-        <v>205</v>
-      </c>
-      <c r="E100" t="s">
-        <v>206</v>
-      </c>
-      <c r="F100" t="s">
-        <v>207</v>
-      </c>
-      <c r="G100" t="s">
-        <v>208</v>
-      </c>
-      <c r="H100" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
-        <v>4</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>18</v>
-      </c>
-      <c r="H101">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>14</v>
-      </c>
-      <c r="H102">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>0</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>10</v>
-      </c>
-      <c r="H103">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>0</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>14</v>
-      </c>
-      <c r="H104">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>0</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>20</v>
-      </c>
-      <c r="H105">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>20</v>
-      </c>
-      <c r="H106">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>0</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>24</v>
-      </c>
-      <c r="H107">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>6</v>
-      </c>
-      <c r="H108">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>0</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>17</v>
-      </c>
-      <c r="H109">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>20</v>
-      </c>
-      <c r="H110">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>0</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
-      </c>
-      <c r="D111">
-        <v>3</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>15</v>
-      </c>
-      <c r="H111">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>25</v>
-      </c>
-      <c r="H112">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>3</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>26</v>
-      </c>
-      <c r="H113">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>27</v>
-      </c>
-      <c r="H114">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>24</v>
-      </c>
-      <c r="H115">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>23</v>
-      </c>
-      <c r="H116">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>0</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>27</v>
-      </c>
-      <c r="H117">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118">
-        <v>4</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>26</v>
-      </c>
-      <c r="H118">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>0</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>3</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>24</v>
-      </c>
-      <c r="H119">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>31</v>
-      </c>
-      <c r="H120">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>0</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>27</v>
-      </c>
-      <c r="H121">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>2</v>
-      </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>28</v>
-      </c>
-      <c r="H122">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>0</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>4</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>52</v>
-      </c>
-      <c r="H123">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>22</v>
-      </c>
-      <c r="H124">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>0</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>28</v>
-      </c>
-      <c r="H125">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>0</v>
-      </c>
-      <c r="B126">
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>29</v>
-      </c>
-      <c r="H126">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>26</v>
-      </c>
-      <c r="H127">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>31</v>
-      </c>
-      <c r="H128">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>0</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>30</v>
-      </c>
-      <c r="H129">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>18</v>
-      </c>
-      <c r="H130">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>37</v>
-      </c>
-      <c r="H131">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>30</v>
-      </c>
-      <c r="H132">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/ac_fantasy_football/defense_data_by_week.xlsx
+++ b/ac_fantasy_football/defense_data_by_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9E73442-8B13-447E-8908-00398AD68E8C}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8B7CBC-DDAD-429D-9E86-2CC7AB3EC56B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="WK6" sheetId="6" r:id="rId6"/>
     <sheet name="WK7" sheetId="7" r:id="rId7"/>
     <sheet name="WK8" sheetId="8" r:id="rId8"/>
+    <sheet name="WK9" sheetId="9" r:id="rId9"/>
+    <sheet name="WK10" sheetId="10" r:id="rId10"/>
+    <sheet name="WK11" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3656" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="777">
   <si>
     <t>Team Defense/Special Teams</t>
   </si>
@@ -2060,6 +2063,309 @@
   </si>
   <si>
     <t>L 24-30</t>
+  </si>
+  <si>
+    <t>NFL Week 9</t>
+  </si>
+  <si>
+    <t>W 27-10</t>
+  </si>
+  <si>
+    <t>W 21-13</t>
+  </si>
+  <si>
+    <t>W 29-9</t>
+  </si>
+  <si>
+    <t>L 13-21</t>
+  </si>
+  <si>
+    <t>W 28-23</t>
+  </si>
+  <si>
+    <t>W 41-24</t>
+  </si>
+  <si>
+    <t>L 23-28</t>
+  </si>
+  <si>
+    <t>W 24-14</t>
+  </si>
+  <si>
+    <t>L 9-29</t>
+  </si>
+  <si>
+    <t>L 10-27</t>
+  </si>
+  <si>
+    <t>L 22-23</t>
+  </si>
+  <si>
+    <t>L 24-41</t>
+  </si>
+  <si>
+    <t>W 27-22</t>
+  </si>
+  <si>
+    <t>L 21-27</t>
+  </si>
+  <si>
+    <t>L 14-24</t>
+  </si>
+  <si>
+    <t>W 27-21</t>
+  </si>
+  <si>
+    <t>L 22-27</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>W 23-22</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>424</t>
+  </si>
+  <si>
+    <t>415</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>447</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>NFL Week 10</t>
+  </si>
+  <si>
+    <t>W 34-6</t>
+  </si>
+  <si>
+    <t>W 19-3</t>
+  </si>
+  <si>
+    <t>W 12-7</t>
+  </si>
+  <si>
+    <t>W 31-6</t>
+  </si>
+  <si>
+    <t>W 27-17</t>
+  </si>
+  <si>
+    <t>W 23-15</t>
+  </si>
+  <si>
+    <t>L 15-23</t>
+  </si>
+  <si>
+    <t>L 6-34</t>
+  </si>
+  <si>
+    <t>W 16-14</t>
+  </si>
+  <si>
+    <t>L 7-12</t>
+  </si>
+  <si>
+    <t>L 14-16</t>
+  </si>
+  <si>
+    <t>L 3-19</t>
+  </si>
+  <si>
+    <t>L 17-27</t>
+  </si>
+  <si>
+    <t>W 35-34</t>
+  </si>
+  <si>
+    <t>L 6-31</t>
+  </si>
+  <si>
+    <t>L 34-35</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>468</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>NFL Week 11</t>
+  </si>
+  <si>
+    <t>W 23-13</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>W 38-6</t>
+  </si>
+  <si>
+    <t>W 52-6</t>
+  </si>
+  <si>
+    <t>W 18-16</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>W 30-21</t>
+  </si>
+  <si>
+    <t>W 28-22</t>
+  </si>
+  <si>
+    <t>L 16-18</t>
+  </si>
+  <si>
+    <t>W 34-19</t>
+  </si>
+  <si>
+    <t>W 20-19</t>
+  </si>
+  <si>
+    <t>L 13-23</t>
+  </si>
+  <si>
+    <t>L 19-20</t>
+  </si>
+  <si>
+    <t>W 35-14</t>
+  </si>
+  <si>
+    <t>L 21-30</t>
+  </si>
+  <si>
+    <t>L 27-34</t>
+  </si>
+  <si>
+    <t>L 19-34</t>
+  </si>
+  <si>
+    <t>W 34-27</t>
+  </si>
+  <si>
+    <t>L 14-35</t>
+  </si>
+  <si>
+    <t>L 22-28</t>
+  </si>
+  <si>
+    <t>L 6-38</t>
+  </si>
+  <si>
+    <t>L 6-52</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>443</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>473</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>-12.0</t>
   </si>
 </sst>
 </file>
@@ -4184,6 +4490,3624 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF74D65-2E48-43C9-AC54-99729C2BF906}">
+  <dimension ref="A1:P98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284E678-AF91-4525-9296-5DE45CF26CEF}">
+  <dimension ref="A1:P98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE67624B-A49A-4A6F-8298-7E3B0FF8A0C8}">
   <dimension ref="A1:P98"/>
@@ -15048,8 +18972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED4B41F-D0B6-45B4-B16E-F8370740589E}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P34"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16849,4 +20773,1812 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42C1F42-55A1-4B9F-85F9-8F613C7F9225}">
+  <dimension ref="A1:P98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ac_fantasy_football/defense_data_by_week.xlsx
+++ b/ac_fantasy_football/defense_data_by_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8B7CBC-DDAD-429D-9E86-2CC7AB3EC56B}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B2F189-D8CA-409D-8B50-B6D94E1367E7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="WK9" sheetId="9" r:id="rId9"/>
     <sheet name="WK10" sheetId="10" r:id="rId10"/>
     <sheet name="WK11" sheetId="11" r:id="rId11"/>
+    <sheet name="WK12" sheetId="12" r:id="rId12"/>
+    <sheet name="WK13" sheetId="13" r:id="rId13"/>
+    <sheet name="WK14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6848" uniqueCount="862">
   <si>
     <t>Team Defense/Special Teams</t>
   </si>
@@ -2366,6 +2369,261 @@
   </si>
   <si>
     <t>-12.0</t>
+  </si>
+  <si>
+    <t>NFL Week 14</t>
+  </si>
+  <si>
+    <t>W 38-13</t>
+  </si>
+  <si>
+    <t>W 28-13</t>
+  </si>
+  <si>
+    <t>W 27-14</t>
+  </si>
+  <si>
+    <t>L 6-10</t>
+  </si>
+  <si>
+    <t>W 14-11</t>
+  </si>
+  <si>
+    <t>L 11-14</t>
+  </si>
+  <si>
+    <t>W 10-6</t>
+  </si>
+  <si>
+    <t>W 19-17</t>
+  </si>
+  <si>
+    <t>L 13-28</t>
+  </si>
+  <si>
+    <t>L 16-22</t>
+  </si>
+  <si>
+    <t>L 17-19</t>
+  </si>
+  <si>
+    <t>L 14-27</t>
+  </si>
+  <si>
+    <t>W 30-18</t>
+  </si>
+  <si>
+    <t>W 22-16</t>
+  </si>
+  <si>
+    <t>W 34-31</t>
+  </si>
+  <si>
+    <t>W 42-21</t>
+  </si>
+  <si>
+    <t>W 44-42</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>L 31-34</t>
+  </si>
+  <si>
+    <t>W 32-26</t>
+  </si>
+  <si>
+    <t>L 26-32</t>
+  </si>
+  <si>
+    <t>L 21-42</t>
+  </si>
+  <si>
+    <t>L 18-30</t>
+  </si>
+  <si>
+    <t>L 13-38</t>
+  </si>
+  <si>
+    <t>L 42-44</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>433</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>-8.0</t>
+  </si>
+  <si>
+    <t>NFL Week 12</t>
+  </si>
+  <si>
+    <t>W 34-26</t>
+  </si>
+  <si>
+    <t>W 16-6</t>
+  </si>
+  <si>
+    <t>L 27-32</t>
+  </si>
+  <si>
+    <t>W 34-15</t>
+  </si>
+  <si>
+    <t>W 38-10</t>
+  </si>
+  <si>
+    <t>L 6-16</t>
+  </si>
+  <si>
+    <t>W 32-27</t>
+  </si>
+  <si>
+    <t>W 30-7</t>
+  </si>
+  <si>
+    <t>W 29-19</t>
+  </si>
+  <si>
+    <t>L 15-34</t>
+  </si>
+  <si>
+    <t>W 24-6</t>
+  </si>
+  <si>
+    <t>L 26-34</t>
+  </si>
+  <si>
+    <t>L 6-24</t>
+  </si>
+  <si>
+    <t>L 19-29</t>
+  </si>
+  <si>
+    <t>L 10-38</t>
+  </si>
+  <si>
+    <t>L 7-30</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>NFL Week 13</t>
+  </si>
+  <si>
+    <t>L 21-26</t>
+  </si>
+  <si>
+    <t>W 17-13</t>
+  </si>
+  <si>
+    <t>W 26-21</t>
+  </si>
+  <si>
+    <t>W 44-38</t>
+  </si>
+  <si>
+    <t>W 41-32</t>
+  </si>
+  <si>
+    <t>L 13-17</t>
+  </si>
+  <si>
+    <t>W 42-19</t>
+  </si>
+  <si>
+    <t>W 30-17</t>
+  </si>
+  <si>
+    <t>L 24-25</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>L 38-44</t>
+  </si>
+  <si>
+    <t>W 25-24</t>
+  </si>
+  <si>
+    <t>L 32-41</t>
+  </si>
+  <si>
+    <t>L 17-30</t>
+  </si>
+  <si>
+    <t>L 19-42</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>405</t>
   </si>
 </sst>
 </file>
@@ -6302,8 +6560,3624 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5284E678-AF91-4525-9296-5DE45CF26CEF}">
   <dimension ref="A1:P98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6D5D82-5B1B-4D91-8F16-B42C4016ACC9}">
+  <dimension ref="A1:P98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE799BE0-250A-490E-8452-4916B91CFF25}">
+  <dimension ref="A1:P98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6319,7 +10193,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>201</v>
@@ -6377,19 +10251,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>598</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>608</v>
+        <v>188</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>425</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>211</v>
@@ -6401,7 +10275,7 @@
         <v>211</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>213</v>
@@ -6410,62 +10284,62 @@
         <v>213</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>458</v>
+        <v>373</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>213</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>351</v>
+        <v>247</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>765</v>
+        <v>638</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>272</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>213</v>
@@ -6474,65 +10348,65 @@
         <v>213</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>217</v>
+        <v>351</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>224</v>
+        <v>588</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>272</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>744</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>211</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>213</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>766</v>
+        <v>852</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>211</v>
@@ -6541,7 +10415,7 @@
         <v>210</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>213</v>
@@ -6550,30 +10424,30 @@
         <v>213</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>213</v>
@@ -6582,39 +10456,39 @@
         <v>213</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>634</v>
+        <v>853</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>745</v>
+        <v>838</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>210</v>
@@ -6626,62 +10500,62 @@
         <v>213</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>374</v>
+        <v>221</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>638</v>
+        <v>437</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>211</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>213</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>239</v>
+        <v>804</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>767</v>
+        <v>854</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>213</v>
@@ -6690,39 +10564,39 @@
         <v>213</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>237</v>
+        <v>366</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>515</v>
+        <v>855</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>275</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>598</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>423</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>746</v>
+        <v>839</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>210</v>
@@ -6734,30 +10608,30 @@
         <v>213</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>275</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>213</v>
@@ -6766,30 +10640,30 @@
         <v>213</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>245</v>
+        <v>521</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>385</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>213</v>
@@ -6798,13 +10672,13 @@
         <v>213</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>276</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
@@ -6815,13 +10689,13 @@
         <v>45</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>747</v>
+        <v>840</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>748</v>
+        <v>195</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>213</v>
@@ -6833,7 +10707,7 @@
         <v>213</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>213</v>
@@ -6842,10 +10716,10 @@
         <v>213</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>768</v>
+        <v>856</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>276</v>
@@ -6865,22 +10739,22 @@
         <v>213</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>213</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>233</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>635</v>
+        <v>510</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
@@ -6891,13 +10765,13 @@
         <v>213</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>213</v>
@@ -6906,30 +10780,30 @@
         <v>213</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>366</v>
+        <v>228</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>769</v>
+        <v>519</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>177</v>
+        <v>841</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>213</v>
@@ -6938,7 +10812,7 @@
         <v>213</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>210</v>
@@ -6950,30 +10824,30 @@
         <v>213</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>770</v>
+        <v>857</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>213</v>
@@ -6982,45 +10856,45 @@
         <v>213</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>501</v>
+        <v>772</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>213</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>771</v>
+        <v>858</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
@@ -7031,13 +10905,13 @@
         <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>417</v>
+        <v>292</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>749</v>
+        <v>474</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>195</v>
+        <v>469</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>213</v>
@@ -7049,7 +10923,7 @@
         <v>213</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>213</v>
@@ -7058,13 +10932,13 @@
         <v>213</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>235</v>
+        <v>371</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>635</v>
+        <v>859</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
@@ -7075,13 +10949,13 @@
         <v>213</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>213</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>213</v>
@@ -7090,13 +10964,13 @@
         <v>213</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>592</v>
+        <v>239</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>501</v>
+        <v>740</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
@@ -7110,11 +10984,1821 @@
         <v>213</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="L25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E51A3E8A-806E-45E6-8731-06A81640AB2B}">
+  <dimension ref="A1:P98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="L23" s="1" t="s">
         <v>213</v>
       </c>
@@ -7122,10 +12806,10 @@
         <v>213</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>526</v>
+        <v>735</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>281</v>
@@ -7133,19 +12817,19 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>652</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>750</v>
+        <v>188</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>385</v>
+        <v>127</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>213</v>
@@ -7157,7 +12841,7 @@
         <v>213</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>213</v>
@@ -7166,18 +12850,18 @@
         <v>213</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>249</v>
+        <v>521</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>213</v>
@@ -7189,7 +12873,7 @@
         <v>213</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>213</v>
@@ -7198,18 +12882,18 @@
         <v>213</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>228</v>
+        <v>524</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>772</v>
+        <v>811</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>213</v>
@@ -7221,7 +12905,7 @@
         <v>213</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>213</v>
@@ -7230,30 +12914,30 @@
         <v>213</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>244</v>
+        <v>592</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>259</v>
+        <v>645</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>283</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>88</v>
+        <v>599</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>326</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>649</v>
+        <v>785</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>91</v>
+        <v>276</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>213</v>
@@ -7262,7 +12946,7 @@
         <v>211</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>211</v>
@@ -7274,18 +12958,18 @@
         <v>213</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>527</v>
+        <v>455</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>773</v>
+        <v>259</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>284</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>213</v>
@@ -7306,94 +12990,94 @@
         <v>213</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>735</v>
+        <v>812</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>464</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>211</v>
+        <v>554</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>455</v>
+        <v>554</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>256</v>
+        <v>554</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>386</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>786</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>419</v>
+        <v>67</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>774</v>
+        <v>554</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>775</v>
+        <v>554</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>776</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>554</v>
@@ -7425,7 +13109,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>554</v>
@@ -7457,19 +13141,19 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>598</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>411</v>
+        <v>125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>554</v>
@@ -7501,7 +13185,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>554</v>
@@ -7533,474 +13217,474 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>665</v>
+        <v>789</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>189</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>124</v>
+        <v>598</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>95</v>
+        <v>346</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>753</v>
+        <v>790</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>41</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>754</v>
+        <v>791</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>94</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>304</v>
+        <v>170</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>671</v>
+        <v>792</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>480</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>755</v>
+        <v>793</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>598</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>756</v>
+        <v>794</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>393</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>622</v>
+        <v>796</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>54</v>
+        <v>398</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>757</v>
+        <v>144</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>145</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>758</v>
+        <v>797</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>759</v>
+        <v>798</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>627</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>662</v>
+        <v>799</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>761</v>
+        <v>801</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>348</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>762</v>
+        <v>802</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>604</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>290</v>
+        <v>553</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>763</v>
+        <v>554</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>276</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>154</v>
+        <v>553</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>764</v>
+        <v>554</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>294</v>
+        <v>554</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>174</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>553</v>
@@ -8014,20 +13698,20 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>553</v>
@@ -8041,20 +13725,20 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>553</v>
@@ -8068,20 +13752,20 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>553</v>
@@ -8095,12 +13779,12 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>198</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
